--- a/biology/Zoologie/Eurylaime_vert/Eurylaime_vert.xlsx
+++ b/biology/Zoologie/Eurylaime_vert/Eurylaime_vert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calyptomena viridis
 L'Eurylaime vert (Calyptomena viridis) est une espèce de passereau appartenant à la famille des Eurylaimidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme son nom l'indique l'Eurylaime vert possède un plumage entièrement vert émeraude, marqué de barres noires sur les ailes et de quelques points noirs le cou. La femelle est légèrement plus terne et ne possède pas de taches noires sur le cou. 
 C'est un petit oiseau mesurant environ 19 cm, au corps trapu et rondelet. Il a une queue courte et une grosse tête orné, au-dessus du bec large et court, d'une dense touffe de plumes courtes le dissimulant partiellement.
@@ -544,9 +558,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Se déplace en petits groupes, dans la canopée, avec parfois d'autres oiseaux, à la recherche de nourriture. Se nourrit principalement de figues et d'autres fruits tendres, ainsi que de bourgeons et parfois d'insectes comme les termites volants[1]. Comportement reproducteur peu connu. Peut être polygame. Les deux parents par contre confectionnent un nid très particulier en forme de poire suspendu en général au-dessus de l'eau. La femelle y pond 2 ou 3 œufs généralement.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se déplace en petits groupes, dans la canopée, avec parfois d'autres oiseaux, à la recherche de nourriture. Se nourrit principalement de figues et d'autres fruits tendres, ainsi que de bourgeons et parfois d'insectes comme les termites volants. Comportement reproducteur peu connu. Peut être polygame. Les deux parents par contre confectionnent un nid très particulier en forme de poire suspendu en général au-dessus de l'eau. La femelle y pond 2 ou 3 œufs généralement.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Repartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Vit dans la canopée des forêts tropicales humides de la Péninsule Malaise, de Bornéo et de Sumatra.
 </t>
@@ -606,7 +624,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il existe les trois sous-espèces suivantes :
 Calyptomena viridis caudacuta  Swainson 1838
